--- a/listas_apolo/instrumentacion A309.xlsx
+++ b/listas_apolo/instrumentacion A309.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\Documents\GitHub\listas-grupos-lab\listas_apolo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\Proyectos\TFG\listas-grupos-lab\listas_apolo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F50C6C-C17F-4479-9EE2-47A8CBA98871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="lista_clase_asignatura_2020-21_" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="13">
   <si>
     <t>Año</t>
   </si>
@@ -35,18 +34,6 @@
   </si>
   <si>
     <t>Nº Orden</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>Cód. Plan Alumno</t>
@@ -67,526 +54,7 @@
     <t>'56IA'</t>
   </si>
   <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>ALVARO</t>
-  </si>
-  <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
     <t>Grupo de Matricula (A309)</t>
-  </si>
-  <si>
-    <t>AMESCUA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>a.amescuah@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>ARBIZU GARCIA</t>
-  </si>
-  <si>
-    <t>JULIO AUGUSTO</t>
-  </si>
-  <si>
-    <t>julio.arbizu.garcia@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X7687599</t>
-  </si>
-  <si>
-    <t>BENOMAR</t>
-  </si>
-  <si>
-    <t>ABDERRAHIM</t>
-  </si>
-  <si>
-    <t>a.benomar@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>CALLEJA PEDROTE</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>andrea.calleja.pedrote@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>CASTEJON CABALLERO</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>andres.castejon.caballero@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X2857497</t>
-  </si>
-  <si>
-    <t>CHEN ZHENG</t>
-  </si>
-  <si>
-    <t>miguel.chen.zheng@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>E03434362</t>
-  </si>
-  <si>
-    <t>CHEN</t>
-  </si>
-  <si>
-    <t>RUNKUN</t>
-  </si>
-  <si>
-    <t>runkun.chen.desconocido@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>DE VIVAR ADRADA</t>
-  </si>
-  <si>
-    <t>jorge.devivar.adrada@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>ESCALADA MARTIN</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>d.escalada@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>ESTRADA GONZALEZ</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>lucia.estradag@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>GARCIA VERDUGO</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO</t>
-  </si>
-  <si>
-    <t>victor.garcia.verdugo@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>GARCÍA DE MARINA DE FRUTOS</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>m.garciademarina@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>GARCIA-TALAVERA ALMAGRO</t>
-  </si>
-  <si>
-    <t>d.garcia-talavera@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>GORDILLO SANTOS</t>
-  </si>
-  <si>
-    <t>ELENA</t>
-  </si>
-  <si>
-    <t>elena.gordillo.santos@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>Y4357318</t>
-  </si>
-  <si>
-    <t>JAIME MEDINA</t>
-  </si>
-  <si>
-    <t>NOELIA</t>
-  </si>
-  <si>
-    <t>noelia.jaime.medina@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>JAREN MADRUGA</t>
-  </si>
-  <si>
-    <t>NURIA</t>
-  </si>
-  <si>
-    <t>n.jaren@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LERA MARTINEZ</t>
-  </si>
-  <si>
-    <t>d.lera@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LIEBANA PEREZ</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>e.liebanap@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X5337479</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
-    <t>ZHAN YAO</t>
-  </si>
-  <si>
-    <t>zhanyao.lin@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LONDOÑO COLORADO</t>
-  </si>
-  <si>
-    <t>JHONATAN</t>
-  </si>
-  <si>
-    <t>j.londono@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LOPEZ FELIPE</t>
-  </si>
-  <si>
-    <t>NEREA</t>
-  </si>
-  <si>
-    <t>nerea.lfelipe@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LOPEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>alvaro.lopezg@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LOPEZ VERA</t>
-  </si>
-  <si>
-    <t>jorge.lvera@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>LUJAN RABOSO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>m.lujanr@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARIN ROLDAN</t>
-  </si>
-  <si>
-    <t>CARMEN</t>
-  </si>
-  <si>
-    <t>carmen.marinr@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARTIN DE PAZ</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>d.mdepaz@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARTÍN MENDOZA</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>jaime.martin.mendoza@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARTIN DE DOMINGO</t>
-  </si>
-  <si>
-    <t>PABLO DANIEL</t>
-  </si>
-  <si>
-    <t>daniel.mdomingo@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARTINEZ MARTINS</t>
-  </si>
-  <si>
-    <t>CYNTHIA</t>
-  </si>
-  <si>
-    <t>c.mmartins@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MARTINEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>dmartinezsuarez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MATEO DE PEDRAZA</t>
-  </si>
-  <si>
-    <t>SIMON</t>
-  </si>
-  <si>
-    <t>simon.mateo.depedraza@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>MONDEJAR FERNANDEZ</t>
-  </si>
-  <si>
-    <t>mario.mondejar.fernandez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>NORIEGA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>c.noriega@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>ORTEGA BUSTOS</t>
-  </si>
-  <si>
-    <t>MIRIAM</t>
-  </si>
-  <si>
-    <t>miriam.ortega.bustos@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>Y6640064</t>
-  </si>
-  <si>
-    <t>PADILLA DE AGUIAR</t>
-  </si>
-  <si>
-    <t>FRANCISCO JOSE</t>
-  </si>
-  <si>
-    <t>f.padilla@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PALOMINO VAQUERO</t>
-  </si>
-  <si>
-    <t>jaime.palomino.vaquero@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PARRILLA MURIAS</t>
-  </si>
-  <si>
-    <t>daniel.parrillam@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PERAZA GARCIA</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>marcos.perazag@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PEREZ CUBEDO</t>
-  </si>
-  <si>
-    <t>sergio.perez.cubedo@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PEREZ GIL</t>
-  </si>
-  <si>
-    <t>pablo.perez.gil@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PETIZCO VERDUGO</t>
-  </si>
-  <si>
-    <t>noelia.pverdugo@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>PLEITER GARCIA</t>
-  </si>
-  <si>
-    <t>RUBEN</t>
-  </si>
-  <si>
-    <t>r.pleiter@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>RAMOS PEREZ</t>
-  </si>
-  <si>
-    <t>victor.ramos.perez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>REIGADAS TERAN</t>
-  </si>
-  <si>
-    <t>MARTIN AUGUSTO</t>
-  </si>
-  <si>
-    <t>martin.rteran@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>RICO PARSER</t>
-  </si>
-  <si>
-    <t>JORGE JAIME</t>
-  </si>
-  <si>
-    <t>jorge.rico.parser@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>Y3030804</t>
-  </si>
-  <si>
-    <t>RUAN</t>
-  </si>
-  <si>
-    <t>XIAOLONG</t>
-  </si>
-  <si>
-    <t>xiaolong.ruan@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>RUIZ DE FRUTOS</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
-    <t>juan.rdefrutos@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>SAETA ÁLVAREZ</t>
-  </si>
-  <si>
-    <t>SILVIA</t>
-  </si>
-  <si>
-    <t>s.saetaa@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>SANCHEZ APARICIO</t>
-  </si>
-  <si>
-    <t>ignacio.saparicio@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>SANCHEZ DEL VILLAR SANTAMARIA</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>c.sanchezdelvillar@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>SANZ DÍAZ</t>
-  </si>
-  <si>
-    <t>ÁNGEL</t>
-  </si>
-  <si>
-    <t>angel.sanz.diaz@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>TORRES DEL NUEVO</t>
-  </si>
-  <si>
-    <t>luis.torres.delnuevo@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>VELA SILVA</t>
-  </si>
-  <si>
-    <t>pablo.vela.silva@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>VELLELLA RAMOS</t>
-  </si>
-  <si>
-    <t>a.vellella@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>WAUCQUEZ JIMENEZ</t>
-  </si>
-  <si>
-    <t>LUIS DONATIEN</t>
-  </si>
-  <si>
-    <t>luis.waucquez.jimenez@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X8193244</t>
-  </si>
-  <si>
-    <t>ZHENG</t>
-  </si>
-  <si>
-    <t>WEI</t>
-  </si>
-  <si>
-    <t>wei.zheng13@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X8163177</t>
-  </si>
-  <si>
-    <t>ZHOU</t>
-  </si>
-  <si>
-    <t>AIWEN</t>
-  </si>
-  <si>
-    <t>a.zhou@alumnos.upm.es</t>
-  </si>
-  <si>
-    <t>X7102316</t>
-  </si>
-  <si>
-    <t>DEWEI</t>
-  </si>
-  <si>
-    <t>d.zhou@alumnos.upm.es</t>
   </si>
   <si>
     <t>* Asignatura elegida como LIBRE ELECCIÓN</t>
@@ -595,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -913,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1069,19 +537,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1145,7 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1153,15 +608,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1184,7 +636,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1518,11 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,16 +984,12 @@
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1566,2242 +1014,1530 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>565000163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>6592528</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
         <v>53330</v>
       </c>
-      <c r="L2" s="2">
+      <c r="H2" s="2">
         <v>321558</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>565000163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
-        <v>5724440</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
         <v>52070</v>
       </c>
-      <c r="L3" s="2">
+      <c r="H3" s="2">
         <v>321244</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>565000163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
         <v>55667</v>
       </c>
-      <c r="L4" s="2">
+      <c r="H4" s="2">
         <v>322407</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>565000163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
-        <v>5958730</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
         <v>53856</v>
       </c>
-      <c r="L5" s="2">
+      <c r="H5" s="2">
         <v>321751</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>565000163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>53504946</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
         <v>49738</v>
       </c>
-      <c r="L6" s="2">
+      <c r="H6" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>565000163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
         <v>53883</v>
       </c>
-      <c r="L7" s="2">
+      <c r="H7" s="2">
         <v>321817</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>565000163</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
         <v>52186</v>
       </c>
-      <c r="L8" s="2">
+      <c r="H8" s="2">
         <v>321259</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>565000163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
-        <v>6601699</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
         <v>53351</v>
       </c>
-      <c r="L9" s="2">
+      <c r="H9" s="2">
         <v>321642</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>565000163</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
-        <v>53908724</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
         <v>52325</v>
       </c>
-      <c r="L10" s="2">
+      <c r="H10" s="2">
         <v>321337</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>565000163</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
-        <v>6012245</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
         <v>50289</v>
       </c>
-      <c r="L11" s="2">
+      <c r="H11" s="2">
         <v>321262</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>565000163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
-        <v>47234585</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
         <v>51217</v>
       </c>
-      <c r="L12" s="2">
+      <c r="H12" s="2">
         <v>321000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>565000163</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
-        <v>3177385</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
         <v>54623</v>
       </c>
-      <c r="L13" s="2">
+      <c r="H13" s="2">
         <v>322409</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>565000163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
-        <v>50560326</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
         <v>52370</v>
       </c>
-      <c r="L14" s="2">
+      <c r="H14" s="2">
         <v>321360</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>565000163</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
-        <v>53493647</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
         <v>51732</v>
       </c>
-      <c r="L15" s="2">
+      <c r="H15" s="2">
         <v>321213</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>565000163</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
         <v>55567</v>
       </c>
-      <c r="L16" s="2">
+      <c r="H16" s="2">
         <v>322200</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
         <v>565000163</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
-        <v>53717623</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
         <v>49538</v>
       </c>
-      <c r="L17" s="2">
+      <c r="H17" s="2">
         <v>102020</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>565000163</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
-        <v>16635394</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
         <v>52433</v>
       </c>
-      <c r="L18" s="2">
+      <c r="H18" s="2">
         <v>321287</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>565000163</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
-      <c r="F19" s="2">
-        <v>48248593</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
         <v>53389</v>
       </c>
-      <c r="L19" s="2">
+      <c r="H19" s="2">
         <v>321541</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
         <v>565000163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
         <v>54950</v>
       </c>
-      <c r="L20" s="2">
+      <c r="H20" s="2">
         <v>322035</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>565000163</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
-      <c r="F21" s="2">
-        <v>49745729</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
         <v>53390</v>
       </c>
-      <c r="L21" s="2">
+      <c r="H21" s="2">
         <v>321609</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
         <v>565000163</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
-      <c r="F22" s="2">
-        <v>50479157</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
         <v>54040</v>
       </c>
-      <c r="L22" s="2">
+      <c r="H22" s="2">
         <v>321764</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
         <v>565000163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
-      <c r="F23" s="2">
-        <v>80103757</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
         <v>54042</v>
       </c>
-      <c r="L23" s="2">
+      <c r="H23" s="2">
         <v>321841</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
         <v>565000163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
-        <v>47469101</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
         <v>53392</v>
       </c>
-      <c r="L24" s="2">
+      <c r="H24" s="2">
         <v>321538</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
         <v>565000163</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
-      <c r="F25" s="2">
-        <v>50564677</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
         <v>54057</v>
       </c>
-      <c r="L25" s="2">
+      <c r="H25" s="2">
         <v>321767</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>565000163</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
       </c>
-      <c r="F26" s="2">
-        <v>51999937</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
         <v>49593</v>
       </c>
-      <c r="L26" s="2">
+      <c r="H26" s="2">
         <v>320592</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <v>565000163</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
       </c>
-      <c r="F27" s="2">
-        <v>79083245</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="2">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
         <v>54067</v>
       </c>
-      <c r="L27" s="2">
+      <c r="H27" s="2">
         <v>321820</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>565000163</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2">
         <v>27</v>
       </c>
-      <c r="F28" s="2">
-        <v>5464770</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
         <v>54733</v>
       </c>
-      <c r="L28" s="2">
+      <c r="H28" s="2">
         <v>321964</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
         <v>565000163</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2">
         <v>28</v>
       </c>
-      <c r="F29" s="2">
-        <v>53848943</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
         <v>54735</v>
       </c>
-      <c r="L29" s="2">
+      <c r="H29" s="2">
         <v>322001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
         <v>565000163</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2">
         <v>29</v>
       </c>
-      <c r="F30" s="2">
-        <v>47583627</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
         <v>52758</v>
       </c>
-      <c r="L30" s="2">
+      <c r="H30" s="2">
         <v>321467</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <v>565000163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
       </c>
-      <c r="F31" s="2">
-        <v>9424773</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
         <v>53783</v>
       </c>
-      <c r="L31" s="2">
+      <c r="H31" s="2">
         <v>321653</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>565000163</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
       </c>
-      <c r="F32" s="2">
-        <v>51703557</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
         <v>53682</v>
       </c>
-      <c r="L32" s="2">
+      <c r="H32" s="2">
         <v>321570</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>565000163</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
       </c>
-      <c r="F33" s="2">
-        <v>47315769</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="2">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
         <v>54103</v>
       </c>
-      <c r="L33" s="2">
+      <c r="H33" s="2">
         <v>321730</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>565000163</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2">
         <v>33</v>
       </c>
-      <c r="F34" s="2">
-        <v>51554415</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
         <v>54280</v>
       </c>
-      <c r="L34" s="2">
+      <c r="H34" s="2">
         <v>321838</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>565000163</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
       </c>
-      <c r="F35" s="2">
-        <v>54349697</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
         <v>54776</v>
       </c>
-      <c r="L35" s="2">
+      <c r="H35" s="2">
         <v>321903</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>565000163</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2">
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="2">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
         <v>54782</v>
       </c>
-      <c r="L36" s="2">
+      <c r="H36" s="2">
         <v>321895</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2">
         <v>565000163</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2">
         <v>36</v>
       </c>
-      <c r="F37" s="2">
-        <v>6295553</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
         <v>54785</v>
       </c>
-      <c r="L37" s="2">
+      <c r="H37" s="2">
         <v>321923</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2">
         <v>565000163</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
       </c>
-      <c r="F38" s="2">
-        <v>5466688</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
         <v>54141</v>
       </c>
-      <c r="L38" s="2">
+      <c r="H38" s="2">
         <v>321754</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2">
         <v>565000163</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
       </c>
-      <c r="F39" s="2">
-        <v>5437220</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
         <v>50718</v>
       </c>
-      <c r="L39" s="2">
+      <c r="H39" s="2">
         <v>320806</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
         <v>565000163</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2">
         <v>39</v>
       </c>
-      <c r="F40" s="2">
-        <v>51480902</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
         <v>54155</v>
       </c>
-      <c r="L40" s="2">
+      <c r="H40" s="2">
         <v>321806</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B41" s="2">
         <v>565000163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2">
         <v>40</v>
       </c>
-      <c r="F41" s="2">
-        <v>3212607</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
         <v>54157</v>
       </c>
-      <c r="L41" s="2">
+      <c r="H41" s="2">
         <v>321711</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B42" s="2">
         <v>565000163</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
       </c>
-      <c r="F42" s="2">
-        <v>50483888</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2">
         <v>54160</v>
       </c>
-      <c r="L42" s="2">
+      <c r="H42" s="2">
         <v>322204</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2">
         <v>565000163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
       </c>
-      <c r="F43" s="2">
-        <v>6007369</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
         <v>54808</v>
       </c>
-      <c r="L43" s="2">
+      <c r="H43" s="2">
         <v>321891</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
         <v>565000163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2">
         <v>43</v>
       </c>
-      <c r="F44" s="2">
-        <v>50242490</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2">
         <v>54819</v>
       </c>
-      <c r="L44" s="2">
+      <c r="H44" s="2">
         <v>321906</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2">
         <v>565000163</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
       </c>
-      <c r="F45" s="2">
-        <v>72306271</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
         <v>54820</v>
       </c>
-      <c r="L45" s="2">
+      <c r="H45" s="2">
         <v>321930</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2">
         <v>565000163</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E46" s="2">
         <v>45</v>
       </c>
-      <c r="F46" s="2">
-        <v>5469380</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2">
         <v>51765</v>
       </c>
-      <c r="L46" s="2">
+      <c r="H46" s="2">
         <v>321134</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B47" s="2">
         <v>565000163</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E47" s="2">
         <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="2">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2">
         <v>54978</v>
       </c>
-      <c r="L47" s="2">
+      <c r="H47" s="2">
         <v>321866</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2">
         <v>565000163</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2">
         <v>47</v>
       </c>
-      <c r="F48" s="2">
-        <v>5990136</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
         <v>54375</v>
       </c>
-      <c r="L48" s="2">
+      <c r="H48" s="2">
         <v>321853</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2">
         <v>565000163</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2">
         <v>48</v>
       </c>
-      <c r="F49" s="2">
-        <v>51128530</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="2">
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2">
         <v>54849</v>
       </c>
-      <c r="L49" s="2">
+      <c r="H49" s="2">
         <v>321952</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2">
         <v>565000163</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
       </c>
-      <c r="F50" s="2">
-        <v>70830136</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
         <v>54854</v>
       </c>
-      <c r="L50" s="2">
+      <c r="H50" s="2">
         <v>321968</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2">
         <v>565000163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
       </c>
-      <c r="F51" s="2">
-        <v>2577071</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="2">
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
         <v>53526</v>
       </c>
-      <c r="L51" s="2">
+      <c r="H51" s="2">
         <v>321638</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2">
         <v>565000163</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2">
         <v>51</v>
       </c>
-      <c r="F52" s="2">
-        <v>6010275</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="2">
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
         <v>54871</v>
       </c>
-      <c r="L52" s="2">
+      <c r="H52" s="2">
         <v>321928</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B53" s="2">
         <v>565000163</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2">
         <v>52</v>
       </c>
-      <c r="F53" s="2">
-        <v>3946499</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="2">
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2">
         <v>54887</v>
       </c>
-      <c r="L53" s="2">
+      <c r="H53" s="2">
         <v>321877</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B54" s="2">
         <v>565000163</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2">
         <v>53</v>
       </c>
-      <c r="F54" s="2">
-        <v>6023582</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2">
         <v>54254</v>
       </c>
-      <c r="L54" s="2">
+      <c r="H54" s="2">
         <v>321747</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2">
         <v>565000163</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E55" s="2">
         <v>54</v>
       </c>
-      <c r="F55" s="2">
-        <v>6035979</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="2">
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
         <v>53446</v>
       </c>
-      <c r="L55" s="2">
+      <c r="H55" s="2">
         <v>321550</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
         <v>565000163</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
       </c>
-      <c r="F56" s="2">
-        <v>77025051</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="2">
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2">
         <v>53449</v>
       </c>
-      <c r="L56" s="2">
+      <c r="H56" s="2">
         <v>321595</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2">
         <v>565000163</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E57" s="2">
         <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="2">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2">
         <v>54911</v>
       </c>
-      <c r="L57" s="2">
+      <c r="H57" s="2">
         <v>321920</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2">
         <v>565000163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="2">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2">
         <v>54913</v>
       </c>
-      <c r="L58" s="2">
+      <c r="H58" s="2">
         <v>321912</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2">
         <v>565000163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E59" s="2">
         <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="2">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2">
         <v>54912</v>
       </c>
-      <c r="L59" s="2">
+      <c r="H59" s="2">
         <v>321887</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="4"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A60:E60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/listas_apolo/instrumentacion A309.xlsx
+++ b/listas_apolo/instrumentacion A309.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="12">
   <si>
     <t>Año</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Nº Expediente en Centro</t>
-  </si>
-  <si>
-    <t>Nº Expediente en Ágora</t>
   </si>
   <si>
     <t>2020-21</t>
@@ -381,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -544,17 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -600,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,7 +595,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +971,9 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,1529 +995,1351 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>565000163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>53330</v>
       </c>
-      <c r="H2" s="2">
-        <v>321558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>565000163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>52070</v>
       </c>
-      <c r="H3" s="2">
-        <v>321244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>565000163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
         <v>55667</v>
       </c>
-      <c r="H4" s="2">
-        <v>322407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>565000163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
         <v>53856</v>
       </c>
-      <c r="H5" s="2">
-        <v>321751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>565000163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>49738</v>
       </c>
-      <c r="H6" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>565000163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>53883</v>
       </c>
-      <c r="H7" s="2">
-        <v>321817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>565000163</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2">
         <v>52186</v>
       </c>
-      <c r="H8" s="2">
-        <v>321259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>565000163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
         <v>53351</v>
       </c>
-      <c r="H9" s="2">
-        <v>321642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>565000163</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2">
         <v>52325</v>
       </c>
-      <c r="H10" s="2">
-        <v>321337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>565000163</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2">
         <v>50289</v>
       </c>
-      <c r="H11" s="2">
-        <v>321262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>565000163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
         <v>51217</v>
       </c>
-      <c r="H12" s="2">
-        <v>321000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>565000163</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2">
         <v>54623</v>
       </c>
-      <c r="H13" s="2">
-        <v>322409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>565000163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2">
         <v>52370</v>
       </c>
-      <c r="H14" s="2">
-        <v>321360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>565000163</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2">
         <v>51732</v>
       </c>
-      <c r="H15" s="2">
-        <v>321213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>565000163</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2">
         <v>55567</v>
       </c>
-      <c r="H16" s="2">
-        <v>322200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>565000163</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2">
         <v>49538</v>
       </c>
-      <c r="H17" s="2">
-        <v>102020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>565000163</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2">
         <v>52433</v>
       </c>
-      <c r="H18" s="2">
-        <v>321287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>565000163</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2">
         <v>53389</v>
       </c>
-      <c r="H19" s="2">
-        <v>321541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>565000163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2">
         <v>54950</v>
       </c>
-      <c r="H20" s="2">
-        <v>322035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>565000163</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2">
         <v>53390</v>
       </c>
-      <c r="H21" s="2">
-        <v>321609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>565000163</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2">
         <v>54040</v>
       </c>
-      <c r="H22" s="2">
-        <v>321764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>565000163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2">
         <v>54042</v>
       </c>
-      <c r="H23" s="2">
-        <v>321841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>565000163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2">
         <v>53392</v>
       </c>
-      <c r="H24" s="2">
-        <v>321538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>565000163</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2">
         <v>54057</v>
       </c>
-      <c r="H25" s="2">
-        <v>321767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
         <v>565000163</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2">
         <v>49593</v>
       </c>
-      <c r="H26" s="2">
-        <v>320592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
         <v>565000163</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2">
         <v>54067</v>
       </c>
-      <c r="H27" s="2">
-        <v>321820</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2">
         <v>565000163</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2">
         <v>54733</v>
       </c>
-      <c r="H28" s="2">
-        <v>321964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>565000163</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2">
         <v>54735</v>
       </c>
-      <c r="H29" s="2">
-        <v>322001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>565000163</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2">
         <v>52758</v>
       </c>
-      <c r="H30" s="2">
-        <v>321467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>565000163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2">
         <v>53783</v>
       </c>
-      <c r="H31" s="2">
-        <v>321653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
         <v>565000163</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
         <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2">
         <v>53682</v>
       </c>
-      <c r="H32" s="2">
-        <v>321570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>565000163</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2">
         <v>54103</v>
       </c>
-      <c r="H33" s="2">
-        <v>321730</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>565000163</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2">
         <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2">
         <v>54280</v>
       </c>
-      <c r="H34" s="2">
-        <v>321838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2">
         <v>565000163</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2">
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="2">
         <v>54776</v>
       </c>
-      <c r="H35" s="2">
-        <v>321903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>565000163</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2">
         <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
         <v>54782</v>
       </c>
-      <c r="H36" s="2">
-        <v>321895</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
         <v>565000163</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="2">
         <v>54785</v>
       </c>
-      <c r="H37" s="2">
-        <v>321923</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
         <v>565000163</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2">
         <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="2">
         <v>54141</v>
       </c>
-      <c r="H38" s="2">
-        <v>321754</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2">
         <v>565000163</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="2">
         <v>50718</v>
       </c>
-      <c r="H39" s="2">
-        <v>320806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2">
         <v>565000163</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="2">
         <v>54155</v>
       </c>
-      <c r="H40" s="2">
-        <v>321806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2">
         <v>565000163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="2">
         <v>54157</v>
       </c>
-      <c r="H41" s="2">
-        <v>321711</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2">
         <v>565000163</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2">
         <v>54160</v>
       </c>
-      <c r="H42" s="2">
-        <v>322204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2">
         <v>565000163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2">
         <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="2">
         <v>54808</v>
       </c>
-      <c r="H43" s="2">
-        <v>321891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
         <v>565000163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2">
         <v>54819</v>
       </c>
-      <c r="H44" s="2">
-        <v>321906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2">
         <v>565000163</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2">
         <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="2">
         <v>54820</v>
       </c>
-      <c r="H45" s="2">
-        <v>321930</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2">
         <v>565000163</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2">
         <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="2">
         <v>51765</v>
       </c>
-      <c r="H46" s="2">
-        <v>321134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2">
         <v>565000163</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2">
         <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="2">
         <v>54978</v>
       </c>
-      <c r="H47" s="2">
-        <v>321866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2">
         <v>565000163</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2">
         <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="2">
         <v>54375</v>
       </c>
-      <c r="H48" s="2">
-        <v>321853</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2">
         <v>565000163</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2">
         <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" s="2">
         <v>54849</v>
       </c>
-      <c r="H49" s="2">
-        <v>321952</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
         <v>565000163</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
         <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" s="2">
         <v>54854</v>
       </c>
-      <c r="H50" s="2">
-        <v>321968</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2">
         <v>565000163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="2">
         <v>53526</v>
       </c>
-      <c r="H51" s="2">
-        <v>321638</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
         <v>565000163</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2">
         <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="2">
         <v>54871</v>
       </c>
-      <c r="H52" s="2">
-        <v>321928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2">
         <v>565000163</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2">
         <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" s="2">
         <v>54887</v>
       </c>
-      <c r="H53" s="2">
-        <v>321877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2">
         <v>565000163</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="2">
         <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="2">
         <v>54254</v>
       </c>
-      <c r="H54" s="2">
-        <v>321747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2">
         <v>565000163</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2">
         <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55" s="2">
         <v>53446</v>
       </c>
-      <c r="H55" s="2">
-        <v>321550</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2">
         <v>565000163</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="2">
         <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="2">
         <v>53449</v>
       </c>
-      <c r="H56" s="2">
-        <v>321595</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2">
         <v>565000163</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2">
         <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="2">
         <v>54911</v>
       </c>
-      <c r="H57" s="2">
-        <v>321920</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2">
         <v>565000163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2">
         <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="2">
         <v>54913</v>
       </c>
-      <c r="H58" s="2">
-        <v>321912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2">
         <v>565000163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2">
         <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="2">
         <v>54912</v>
       </c>
-      <c r="H59" s="2">
-        <v>321887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
